--- a/data/aforos_unificado.xlsx
+++ b/data/aforos_unificado.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sebas\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sebas\Documents\app EDS ARAUCA\app-prediccion-combustible\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12182529-65ED-4341-A900-C9B76CB048FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B03112B1-CB28-4AA2-8C6B-CAC6543739D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -456,8 +456,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B244"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="A62" sqref="A62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4101,8 +4101,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B489"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView tabSelected="1" topLeftCell="A166" workbookViewId="0">
+      <selection activeCell="J173" sqref="J173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9513,7 +9513,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:B244"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
+    <sheetView topLeftCell="A58" workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
